--- a/result/zernike_14_moment_times_CPU_15P_4K.xlsx
+++ b/result/zernike_14_moment_times_CPU_15P_4K.xlsx
@@ -473,22 +473,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01370274912169863</v>
+        <v>0.01925151755209968</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8109695800854858</v>
+        <v>-0.8269869105004071</v>
       </c>
       <c r="E2" t="n">
-        <v>0.230616569519043</v>
+        <v>0.2293074131011963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06992793083190918</v>
+        <v>0.06396889686584473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.157564640045166</v>
+        <v>0.1504702568054199</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2344415187835693</v>
+        <v>0.2370204925537109</v>
       </c>
     </row>
     <row r="3">
@@ -501,22 +501,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.957606206867808</v>
+        <v>0.8688106248095467</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8732422161768219</v>
+        <v>-0.8271527745996158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1461548805236816</v>
+        <v>0.1644032001495361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2234723567962646</v>
+        <v>0.2274794578552246</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3620874881744385</v>
+        <v>0.3685142993927002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5700058937072754</v>
+        <v>0.5639288425445557</v>
       </c>
     </row>
     <row r="4">
@@ -529,22 +529,22 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.132669808552204</v>
+        <v>0.9956992071732962</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5620739964982493</v>
+        <v>-0.493140440879733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2963576316833496</v>
+        <v>0.3498926162719727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5229527950286865</v>
+        <v>0.5503606796264648</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9133551120758057</v>
+        <v>0.916567325592041</v>
       </c>
       <c r="H4" t="n">
-        <v>1.459181547164917</v>
+        <v>1.428785085678101</v>
       </c>
     </row>
     <row r="5">
@@ -557,22 +557,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.023562886572562</v>
+        <v>2.014907929319521</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6902446055941016</v>
+        <v>-0.657348138868583</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1975963115692139</v>
+        <v>0.2132031917572021</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8387012481689453</v>
+        <v>0.9208304882049561</v>
       </c>
       <c r="G5" t="n">
-        <v>2.144222736358643</v>
+        <v>2.161195993423462</v>
       </c>
       <c r="H5" t="n">
-        <v>3.029073715209961</v>
+        <v>3.341476917266846</v>
       </c>
     </row>
     <row r="6">
@@ -585,22 +585,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>2.250294888527187</v>
+        <v>2.287366972796882</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.15412370870196</v>
+        <v>-0.158092245100376</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6540446281433105</v>
+        <v>0.6915175914764404</v>
       </c>
       <c r="F6" t="n">
-        <v>3.758106231689453</v>
+        <v>3.278537273406982</v>
       </c>
       <c r="G6" t="n">
-        <v>8.727027893066406</v>
+        <v>9.528943061828613</v>
       </c>
       <c r="H6" t="n">
-        <v>14.38615345954895</v>
+        <v>15.49360823631287</v>
       </c>
     </row>
     <row r="7">
@@ -613,22 +613,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2.158276466298743</v>
+        <v>2.43023578409931</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3086847137854638</v>
+        <v>0.2075035533115918</v>
       </c>
       <c r="E7" t="n">
-        <v>1.769380569458008</v>
+        <v>1.516216039657593</v>
       </c>
       <c r="F7" t="n">
-        <v>11.88824653625488</v>
+        <v>9.915433168411255</v>
       </c>
       <c r="G7" t="n">
-        <v>22.41252279281616</v>
+        <v>22.80273723602295</v>
       </c>
       <c r="H7" t="n">
-        <v>34.68857073783875</v>
+        <v>44.58545851707458</v>
       </c>
     </row>
   </sheetData>
